--- a/2_Supplemental_Material/Section_6_Solution/3_Mapping_of_identified_optimization_rules_to_classes_in_the_GrammarOptimizer_implementation.xlsx
+++ b/2_Supplemental_Material/Section_6_Solution/3_Mapping_of_identified_optimization_rules_to_classes_in_the_GrammarOptimizer_implementation.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="302">
   <si>
     <t>Class ID</t>
   </si>
@@ -28,19 +28,19 @@
     <t>C001</t>
   </si>
   <si>
-    <t>RemoveBraces</t>
+    <t>RemoveBracket</t>
   </si>
   <si>
     <t>Remove all the braces from a specified scope (i.e. the whole grammar or a specified rule or a specified attr in a specified rule or a specified attr in all grammar rules. The scopes depend on the value of parameters grammarRuleName and attrName).</t>
   </si>
   <si>
-    <t>IR007</t>
+    <t>IR007, IR034</t>
   </si>
   <si>
     <t>C002</t>
   </si>
   <si>
-    <t>RemoveContrainerBraces</t>
+    <t>RemoveOutermostBracket</t>
   </si>
   <si>
     <t>Remove only the outermost braces from a specified grammar rule</t>
@@ -49,24 +49,6 @@
     <t>IR034</t>
   </si>
   <si>
-    <t>C003</t>
-  </si>
-  <si>
-    <t>RemoveBracesInAttrs</t>
-  </si>
-  <si>
-    <t>Remove braces from all the attributes except the outermost braces from a specified grammar rule</t>
-  </si>
-  <si>
-    <t>C004</t>
-  </si>
-  <si>
-    <t>RemoveAllBracesInAttrs</t>
-  </si>
-  <si>
-    <t>Remove braces from all the attributes except the outermost braces from all the grammar rules within a grammar</t>
-  </si>
-  <si>
     <t>C013</t>
   </si>
   <si>
@@ -77,15 +59,6 @@
   </si>
   <si>
     <t>IR002</t>
-  </si>
-  <si>
-    <t>C014</t>
-  </si>
-  <si>
-    <t>AddKeywordToRule</t>
-  </si>
-  <si>
-    <t>Add a keyword to a specified grammar rule</t>
   </si>
   <si>
     <t>C015</t>
@@ -146,7 +119,7 @@
     <t>Change all the attributes within same grammar rule from optional to mandatory and make them to be in a "OR" relationship with each other.</t>
   </si>
   <si>
-    <t>IR012</t>
+    <t>IR012, IR029</t>
   </si>
   <si>
     <t>C029</t>
@@ -329,7 +302,7 @@
     <t>C048</t>
   </si>
   <si>
-    <t>ChangeBracesToParenthese</t>
+    <t>ChangeBracketToParenthese</t>
   </si>
   <si>
     <t>change all the braces to parentheses in a specified scope  (i.e. the whole grammar or a specified rule or a specified attr in a specified rule or a specified attr in all grammar rules. The scopes depend on the value of parameters grammarRuleName and attrName).</t>
@@ -341,7 +314,7 @@
     <t>C049</t>
   </si>
   <si>
-    <t>ChangeBraceToSquare</t>
+    <t>ChangeBracketToSquare</t>
   </si>
   <si>
     <t>change all the braces to square in a specified scope  (i.e. the whole grammar or a specified rule or a specified attr in a specified rule or a specified attr in all grammar rules. The scopes depend on the value of parameters grammarRuleName and attrName)</t>
@@ -350,7 +323,7 @@
     <t>C050</t>
   </si>
   <si>
-    <t>ChangeBraceToAngle</t>
+    <t>ChangeBracketToAngle</t>
   </si>
   <si>
     <t>change all the braces to angle in a specified scope  (i.e. the whole grammar or a specified rule or a specified attr in a specified rule or a specified attr in all grammar rules. The scopes depend on the value of parameters grammarRuleName and attrName) angle</t>
@@ -371,7 +344,7 @@
     <t>C052</t>
   </si>
   <si>
-    <t>RemoveBraceExceptContainer</t>
+    <t>RemoveBracketExceptOutermost</t>
   </si>
   <si>
     <t>Remove braces from all the attributes except the outermost braces in a specified scope  (i.e. the whole grammar or a specified rule. The scopes depend on the value of parameters grammarRuleName) angle</t>
@@ -500,7 +473,7 @@
     <t>C063</t>
   </si>
   <si>
-    <t>AddKeywordToKeyword</t>
+    <t>AddAlternativeKeyword</t>
   </si>
   <si>
     <t>Add a new keyword to an existing keyword, i.e. convert 'A' to 'A' | 'B'</t>
@@ -524,7 +497,7 @@
     <t>C065</t>
   </si>
   <si>
-    <t>AddBraceToAttr</t>
+    <t>AddBracketToAttr</t>
   </si>
   <si>
     <t>Add a pair of braces '{' and '}' to a specified attribute</t>
@@ -542,19 +515,10 @@
     <t>IR020</t>
   </si>
   <si>
-    <t>C067</t>
-  </si>
-  <si>
-    <t>KeywordLowerToUpperCase</t>
-  </si>
-  <si>
-    <t>change a specified keyword (or all the keyword in a specified grammar rule/attribute) to lower case</t>
-  </si>
-  <si>
     <t>C068</t>
   </si>
   <si>
-    <t>AddSquareBraceToAttr</t>
+    <t>AddSquareBracketToAttr</t>
   </si>
   <si>
     <t>Add a pair of square braces (i.e., '[' ']') to a specified attr</t>
@@ -563,7 +527,7 @@
     <t>C069</t>
   </si>
   <si>
-    <t>AddOptionalityToContainerBraces</t>
+    <t>AddOptionalityToOutermostBracket</t>
   </si>
   <si>
     <t>Add the optionality to a container (i.e. the outermost braces) of a rule if all the attributes inside of the container are optional.</t>
@@ -572,15 +536,6 @@
     <t>IR051</t>
   </si>
   <si>
-    <t>C070</t>
-  </si>
-  <si>
-    <t>ChangeContainerBracesToParenthesis</t>
-  </si>
-  <si>
-    <t>Change the outermost braces (i.e., so-called container braces) of a rule to parenthesis (i.e., '(' and ')')</t>
-  </si>
-  <si>
     <t>C071</t>
   </si>
   <si>
@@ -632,7 +587,7 @@
     <t>C079</t>
   </si>
   <si>
-    <t>AddTerminal</t>
+    <t>AddTerminalRule</t>
   </si>
   <si>
     <t>Add new terminal definition</t>
@@ -789,7 +744,7 @@
     <t>C101</t>
   </si>
   <si>
-    <t>AddBracesToLine</t>
+    <t>AddBracketToLine</t>
   </si>
   <si>
     <t>Add '{' '}' to a specified line or lines</t>
@@ -957,7 +912,7 @@
     <t>C113</t>
   </si>
   <si>
-    <t>AddBracesToRule</t>
+    <t>AddBracketToRule</t>
   </si>
   <si>
     <r>
@@ -1108,7 +1063,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1128,12 +1083,8 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1144,12 +1095,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1177,7 +1122,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1195,9 +1140,6 @@
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1546,7 +1488,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1572,16 +1514,16 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1607,16 +1549,16 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1642,16 +1584,16 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1677,16 +1619,16 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1712,16 +1654,16 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1747,16 +1689,16 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1782,16 +1724,16 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1817,16 +1759,16 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1852,16 +1794,16 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1887,16 +1829,16 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1922,16 +1864,16 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1957,16 +1899,16 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1992,16 +1934,16 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2027,16 +1969,16 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2062,16 +2004,16 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2097,16 +2039,16 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -2132,16 +2074,16 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -2167,16 +2109,16 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2202,16 +2144,16 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2237,16 +2179,16 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -2272,16 +2214,16 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -2307,16 +2249,16 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2342,16 +2284,16 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2377,16 +2319,16 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -2412,16 +2354,16 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2447,16 +2389,16 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2482,16 +2424,16 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -2517,16 +2459,16 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -2552,16 +2494,16 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -2587,16 +2529,16 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -2622,16 +2564,16 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2657,16 +2599,16 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -2692,16 +2634,16 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2727,16 +2669,16 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -2762,16 +2704,16 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -2797,16 +2739,16 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -2832,16 +2774,16 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -2867,16 +2809,16 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -2902,16 +2844,16 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -2937,16 +2879,16 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -2972,16 +2914,16 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -3007,16 +2949,16 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -3042,16 +2984,16 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -3077,16 +3019,16 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -3112,16 +3054,16 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -3147,16 +3089,16 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -3182,16 +3124,16 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -3217,16 +3159,16 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -3252,16 +3194,16 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -3287,16 +3229,16 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -3322,16 +3264,16 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -3357,16 +3299,16 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -3392,16 +3334,16 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -3427,16 +3369,16 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -3462,16 +3404,16 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>223</v>
+        <v>227</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -3497,16 +3439,16 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>227</v>
+        <v>231</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -3532,16 +3474,16 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>231</v>
+        <v>235</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -3567,16 +3509,16 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -3602,16 +3544,16 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -3637,16 +3579,16 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -3672,16 +3614,16 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -3707,16 +3649,16 @@
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -3742,16 +3684,16 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -3777,16 +3719,16 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -3812,16 +3754,16 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -3847,16 +3789,16 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -3882,16 +3824,16 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -3917,16 +3859,16 @@
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -3952,16 +3894,16 @@
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -3987,16 +3929,16 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -4022,16 +3964,16 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -4057,16 +3999,16 @@
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -4091,17 +4033,17 @@
       <c r="Y76" s="2"/>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>296</v>
+      <c r="A77" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>301</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -4126,18 +4068,10 @@
       <c r="Y77" s="2"/>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>300</v>
-      </c>
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -4161,18 +4095,10 @@
       <c r="Y78" s="2"/>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>304</v>
-      </c>
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -4196,18 +4122,10 @@
       <c r="Y79" s="2"/>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>308</v>
-      </c>
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -4231,18 +4149,10 @@
       <c r="Y80" s="2"/>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>312</v>
-      </c>
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -4266,18 +4176,10 @@
       <c r="Y81" s="2"/>
     </row>
     <row r="82">
-      <c r="A82" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>316</v>
-      </c>
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -27871,141 +27773,6 @@
       <c r="X955" s="2"/>
       <c r="Y955" s="2"/>
     </row>
-    <row r="956">
-      <c r="A956" s="2"/>
-      <c r="B956" s="2"/>
-      <c r="C956" s="2"/>
-      <c r="D956" s="2"/>
-      <c r="E956" s="2"/>
-      <c r="F956" s="2"/>
-      <c r="G956" s="2"/>
-      <c r="H956" s="2"/>
-      <c r="I956" s="2"/>
-      <c r="J956" s="2"/>
-      <c r="K956" s="2"/>
-      <c r="L956" s="2"/>
-      <c r="M956" s="2"/>
-      <c r="N956" s="2"/>
-      <c r="O956" s="2"/>
-      <c r="P956" s="2"/>
-      <c r="Q956" s="2"/>
-      <c r="R956" s="2"/>
-      <c r="S956" s="2"/>
-      <c r="T956" s="2"/>
-      <c r="U956" s="2"/>
-      <c r="V956" s="2"/>
-      <c r="W956" s="2"/>
-      <c r="X956" s="2"/>
-      <c r="Y956" s="2"/>
-    </row>
-    <row r="957">
-      <c r="A957" s="2"/>
-      <c r="B957" s="2"/>
-      <c r="C957" s="2"/>
-      <c r="D957" s="2"/>
-      <c r="E957" s="2"/>
-      <c r="F957" s="2"/>
-      <c r="G957" s="2"/>
-      <c r="H957" s="2"/>
-      <c r="I957" s="2"/>
-      <c r="J957" s="2"/>
-      <c r="K957" s="2"/>
-      <c r="L957" s="2"/>
-      <c r="M957" s="2"/>
-      <c r="N957" s="2"/>
-      <c r="O957" s="2"/>
-      <c r="P957" s="2"/>
-      <c r="Q957" s="2"/>
-      <c r="R957" s="2"/>
-      <c r="S957" s="2"/>
-      <c r="T957" s="2"/>
-      <c r="U957" s="2"/>
-      <c r="V957" s="2"/>
-      <c r="W957" s="2"/>
-      <c r="X957" s="2"/>
-      <c r="Y957" s="2"/>
-    </row>
-    <row r="958">
-      <c r="A958" s="2"/>
-      <c r="B958" s="2"/>
-      <c r="C958" s="2"/>
-      <c r="D958" s="2"/>
-      <c r="E958" s="2"/>
-      <c r="F958" s="2"/>
-      <c r="G958" s="2"/>
-      <c r="H958" s="2"/>
-      <c r="I958" s="2"/>
-      <c r="J958" s="2"/>
-      <c r="K958" s="2"/>
-      <c r="L958" s="2"/>
-      <c r="M958" s="2"/>
-      <c r="N958" s="2"/>
-      <c r="O958" s="2"/>
-      <c r="P958" s="2"/>
-      <c r="Q958" s="2"/>
-      <c r="R958" s="2"/>
-      <c r="S958" s="2"/>
-      <c r="T958" s="2"/>
-      <c r="U958" s="2"/>
-      <c r="V958" s="2"/>
-      <c r="W958" s="2"/>
-      <c r="X958" s="2"/>
-      <c r="Y958" s="2"/>
-    </row>
-    <row r="959">
-      <c r="A959" s="2"/>
-      <c r="B959" s="2"/>
-      <c r="C959" s="2"/>
-      <c r="D959" s="2"/>
-      <c r="E959" s="2"/>
-      <c r="F959" s="2"/>
-      <c r="G959" s="2"/>
-      <c r="H959" s="2"/>
-      <c r="I959" s="2"/>
-      <c r="J959" s="2"/>
-      <c r="K959" s="2"/>
-      <c r="L959" s="2"/>
-      <c r="M959" s="2"/>
-      <c r="N959" s="2"/>
-      <c r="O959" s="2"/>
-      <c r="P959" s="2"/>
-      <c r="Q959" s="2"/>
-      <c r="R959" s="2"/>
-      <c r="S959" s="2"/>
-      <c r="T959" s="2"/>
-      <c r="U959" s="2"/>
-      <c r="V959" s="2"/>
-      <c r="W959" s="2"/>
-      <c r="X959" s="2"/>
-      <c r="Y959" s="2"/>
-    </row>
-    <row r="960">
-      <c r="A960" s="2"/>
-      <c r="B960" s="2"/>
-      <c r="C960" s="2"/>
-      <c r="D960" s="2"/>
-      <c r="E960" s="2"/>
-      <c r="F960" s="2"/>
-      <c r="G960" s="2"/>
-      <c r="H960" s="2"/>
-      <c r="I960" s="2"/>
-      <c r="J960" s="2"/>
-      <c r="K960" s="2"/>
-      <c r="L960" s="2"/>
-      <c r="M960" s="2"/>
-      <c r="N960" s="2"/>
-      <c r="O960" s="2"/>
-      <c r="P960" s="2"/>
-      <c r="Q960" s="2"/>
-      <c r="R960" s="2"/>
-      <c r="S960" s="2"/>
-      <c r="T960" s="2"/>
-      <c r="U960" s="2"/>
-      <c r="V960" s="2"/>
-      <c r="W960" s="2"/>
-      <c r="X960" s="2"/>
-      <c r="Y960" s="2"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
